--- a/data/output/bases-separadas/-5.xlsx
+++ b/data/output/bases-separadas/-5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,1210 @@
           <t>cnpj</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cnae</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>7423953000101</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>03851527000118</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>72452907000100</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>08886173000160</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>10245270000116</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>02068087000164</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>9654686000109</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>06888715000109</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>10376488000100</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08206867000100</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>5580596000160</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>01313391000167</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>32454894000186</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0519577000104</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>4981618000130</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04072680000100</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>3540368000130</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01099497000100</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>3408755000118</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07397985000180</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>4650687000161</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>04990581000107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>7151812000187</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>06015029000123</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>5072588000102</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01125291000107</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>15332890000106</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>08668141000199</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>389481001817</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>07173027000125</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>92706308000175</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>02430055000167</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>6165267000115</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>05209445000108</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>15311542000152</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>011247857000127</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>5013050000127</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>06012316000180</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>86700432000120</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>04391197000198</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>1586183000131</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>02274615000131</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>87445359000150</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>05846759000103</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>66007212000109</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>07064709000108</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>2736951000159</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>05878950000137</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>4819323000162</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01442702000198</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>4172838000113</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>03470162000181</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>10780600000173</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>07169450000151</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>43122837000116</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>05976012000170</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>2200608000195</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>09576966000146</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>2589470000168</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>07293334000140</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>4456991000172</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>07423953000101</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>10501763000170</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>09654686000109</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>7423141000247</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>05580596000160</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>8104305000155</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>04981618000130</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>91151878000183</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>03540368000130</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>13270728000185</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>03408755000118</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>53963443000144</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>04650687000161</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>4463885000116</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>07151812000187</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>84847250000151</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>05072588000102</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>281587000154</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0389481001817</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>6516967000107</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>06165267000115</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>13605215000188</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>05013050000127</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>5588968000102</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>01586183000131</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>52297850000105</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>02736951000159</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>2832876000120</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>04819323000162</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>12305622000107</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04172838000113</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>13854891000195</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>02200608000195</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>225166000106</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>02589470000168</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>4470925000157</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>04456991000172</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>7914016000159</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>07423141000247</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>9556707000153</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>08104305000155</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>89825350000109</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>04463885000116</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>7093822000103</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>0281587000154</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>9304380000122</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>06516967000107</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>6127852000120</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>05588968000102</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>71820799000100</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>02832876000120</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>9431827000124</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>0225166000106</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>9211396000190</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>04470925000157</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>15017330000167</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>07914016000159</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>1013017000146</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>09556707000153</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>4218935000108</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>07093822000103</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>38990552000167</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>09304380000122</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>68428184000129</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>06127852000120</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>15077477000142</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>09431827000124</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>7508784000102</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>09211396000190</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>929818000193</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>01013017000146</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>73559742000125</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>04218935000108</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>12453200000189</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>07508784000102</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>7167981000105</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>0929818000193</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>12551508000167</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>07167981000105</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>49413743000182</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>08713403000190</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>80511280000131</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>08828429000183</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>17078470000170</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>08586610000120</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>8713403000190</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>08667623000124</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>10891579000183</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>0320527000101</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>52760758000121</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>04120966000113</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>8828429000183</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>0460120000171</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>8586610000120</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>06922950000150</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>13710385000122</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>05585327000196</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>13627969000139</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>09078002000178</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>15055266000109</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>06322123000125</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>8667623000124</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>05371051000143</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>14407641000170</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>05632593000122</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>22993935000159</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>0564200000177</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>19240860000120</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>08250513000162</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>320527000101</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>09435854000175</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>4120966000113</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>01136636000128</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>460120000171</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>09011627000112</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>57011405000142</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>07887324000132</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>6922950000150</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>08179670000129</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>5585327000196</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>04114101000144</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>15102832000196</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>0909327000261</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>17857870000184</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>0389481002112</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>9078002000178</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>04368089000102</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>12916460000143</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>01676336000131</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>6322123000125</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>0868626000114</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>5371051000143</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>02491558000142</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>11181274000140</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>04377451000101</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>5632593000122</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>07589862000140</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>52211752000103</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>09540688000177</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
   </sheetData>
